--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value860.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value860.xlsx
@@ -354,7 +354,7 @@
         <v>1.734316395695252</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.081853753969281</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value860.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value860.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8994674778430671</v>
+        <v>0.7254747152328491</v>
       </c>
       <c r="B1">
-        <v>1.734316395695252</v>
+        <v>2.694529294967651</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>3.201138973236084</v>
       </c>
       <c r="D1">
-        <v>2.081853753969281</v>
+        <v>2.495908498764038</v>
       </c>
       <c r="E1">
-        <v>1.344314824492858</v>
+        <v>1.497864484786987</v>
       </c>
     </row>
   </sheetData>
